--- a/src/test/resources/excel/test2.xlsx
+++ b/src/test/resources/excel/test2.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{FCFEBDE3-EDC5-8142-9F47-A7EFA88C2127}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="2" xr2:uid="{FCFEBDE3-EDC5-8142-9F47-A7EFA88C2127}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="realSheet" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
   <si>
     <t>aa</t>
   </si>
@@ -80,7 +81,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -91,6 +99,18 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F65241CF-6FF4-1D4D-AD1E-8BD49085DC6D}" name="Table1" displayName="Table1" ref="D8:F10" totalsRowShown="0">
+  <autoFilter ref="D8:F10" xr:uid="{19F46372-5E51-A545-9F39-39A4BE4982B7}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{27B4FE97-982A-CE45-83C7-D475E7EF6BE5}" name="aa"/>
+    <tableColumn id="2" xr3:uid="{47B6D3DA-80A1-204A-A98F-3F6083E1BEBC}" name="bb" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{C955C8B0-1F12-414B-842C-B6203E5510AF}" name="c" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -392,7 +412,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D7DE44-FBC1-0249-A72F-27A90A3542F0}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -407,7 +427,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -448,4 +468,55 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90DB6F13-CC69-3C4E-AE80-734C51649BE8}">
+  <dimension ref="D8:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8:F10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="8" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D9" s="2">
+        <v>42958</v>
+      </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="10" spans="4:6" x14ac:dyDescent="0.2">
+      <c r="D10" s="1">
+        <v>43050.12</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
 </file>